--- a/assessments/yfs/YFS OFL 2018 from 2019 assmnt how to calculate .xlsx
+++ b/assessments/yfs/YFS OFL 2018 from 2019 assmnt how to calculate .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" activeTab="1"/>
+    <workbookView xWindow="1900" yWindow="5120" windowWidth="25120" windowHeight="14420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="one_sex_one_gear" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -325,13 +325,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -347,12 +349,14 @@
     <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,7 +392,7 @@
         <xdr:cNvPr id="2" name="Left Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -453,7 +457,7 @@
         <xdr:cNvPr id="2" name="Left Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -513,7 +517,7 @@
         <xdr:cNvPr id="3" name="Left Arrow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -578,7 +582,7 @@
         <xdr:cNvPr id="2" name="Left Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -638,7 +642,7 @@
         <xdr:cNvPr id="3" name="Left Arrow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,7 +942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1553,7 +1557,7 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2378,7 +2382,7 @@
         <v>2.9895744553873582E-4</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" ref="C19:T20" si="1">C11*C13*C15*$C$6*(1-$C$9)/($C$6*(1-$C$9)*C15+$C$3)*(1-EXP(-$C$6*(1-$C$9)*C15-$C$3))</f>
+        <f t="shared" ref="C19:U19" si="1">C11*C13*C15*$C$6*(1-$C$9)/($C$6*(1-$C$9)*C15+$C$3)*(1-EXP(-$C$6*(1-$C$9)*C15-$C$3))</f>
         <v>1.5786579734580442E-3</v>
       </c>
       <c r="D19" s="6">
@@ -2450,7 +2454,7 @@
         <v>4.712340780500007</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" ref="U19:U20" si="2">U11*U13*U15*$C$6*(1-$C$9)/($C$6*(1-$C$9)*U15+$C$3)*(1-EXP(-$C$6*(1-$C$9)*U15-$C$3))</f>
+        <f t="shared" si="1"/>
         <v>34.184435332516607</v>
       </c>
       <c r="V19" s="6"/>
@@ -2473,79 +2477,79 @@
         <v>0</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C19:T20" si="2">C12*C14*C16*$C$6*(1-$C$9)/($C$6*(1-$C$9)*C16+$C$3)*(1-EXP(-$C$6*(1-$C$9)*C16-$C$3))</f>
         <v>1.3625885139957204E-3</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3984706332490798E-2</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5183730749784719E-2</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11117252830027045</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19596250975343432</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0405461869373334</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0400229865243897</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3163044401560686</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.482119318685017</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.650977452274079</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6727657510381437</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4032820791411424</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.611536606728146</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9023853573906404</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0603291510369734</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4398692594638201</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1812367234917751</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4861332990809779</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U19:U20" si="3">U12*U14*U16*$C$6*(1-$C$9)/($C$6*(1-$C$9)*U16+$C$3)*(1-EXP(-$C$6*(1-$C$9)*U16-$C$3))</f>
         <v>26.417640561276158</v>
       </c>
       <c r="V20" s="6"/>
@@ -2568,79 +2572,79 @@
         <v>0</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21:U22" si="3">C11*C13*C17*$C$6*($C$9)/($C$6*($C$9)*C17+$C$3)*(1-EXP(-$C$6*($C$9)*C17-$C$3))</f>
+        <f t="shared" ref="C21:U22" si="4">C11*C13*C17*$C$6*($C$9)/($C$6*($C$9)*C17+$C$3)*(1-EXP(-$C$6*($C$9)*C17-$C$3))</f>
         <v>0</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V21" s="6"/>
@@ -2663,79 +2667,79 @@
         <v>0</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V22" s="6"/>
@@ -2939,6 +2943,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
